--- a/biology/Zoologie/Bécasseau_d'Alaska/Bécasseau_d'Alaska.xlsx
+++ b/biology/Zoologie/Bécasseau_d'Alaska/Bécasseau_d'Alaska.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_d%27Alaska</t>
+          <t>Bécasseau_d'Alaska</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calidris mauri
 Le Bécasseau d'Alaska, Calidris mauri, est une espèce de petits oiseaux limicoles de la famille des Scolopacidae et à la sous-famille des Calidridinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_d%27Alaska</t>
+          <t>Bécasseau_d'Alaska</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bécasseau d'Alaska mesure 14 à 17 cm de longueur. Tout comme chez le Bécasseau semipalmé, les pattes noires présentent une palmure partielle.
 La projection primaire est courte : la pointe des rémiges primaires arrive au niveau de la queue ou la dépasse quelque peu.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_d%27Alaska</t>
+          <t>Bécasseau_d'Alaska</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bécasseau vit en Amérique et n'est qu'occasionnel en Europe de l'Ouest.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_d%27Alaska</t>
+          <t>Bécasseau_d'Alaska</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bécasseau d'Alaska trottine rapidement sur les vasières. Il forme de grands groupes sur les reposoirs. Il est souvent associé au Bécasseau semipalmé.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_d%27Alaska</t>
+          <t>Bécasseau_d'Alaska</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">"Djit" aigu, fin, un peu rapeux. 
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_d%27Alaska</t>
+          <t>Bécasseau_d'Alaska</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,11 +658,13 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a montré[1] par l'étude conjointe d'enregistrements vidéo et du contenu stomacal et d'isotopes stables comme marqueurs, que le Bécasseau d'Alaska se nourrit en grande partie d'algues et de bactéries qu'il trouve dans le biofilm intertidal.Auparavant, ce type de biofilm était uniquement considéré comme une source de nourriture pour les invertébrés râpeurs et quelques poissons spécialisés. Il constitue en fait de 45 à 59 % de la ration alimentaire totale de cette espèce. Et il fournit environ la moitié (50 %) de son budget énergétique quotidien[1].
-Il est possible que cette espèce puisse profiter d'une augmentation de l'épaisseur du biofilm due à l'eutrophisation générale de l'environnement. Ce constat implique aussi une concurrence entre cet oiseau et les invertébrés herbivores consommateurs primaires qui exploitent également cette ressource. Mais il est également possible qu'en remuant la couche superficielle du sédiment, l'oiseau favorise la régénération naturelle du biofilm qui à marée haute peut alors être consommé par les invertébrés aquatiques[1].
-En outre, comme les taux de consommation individuels sont estimés à sept fois la masse corporelle par jour, et que les de bécasseaux d'Alaska atteignent souvent des dizaines de milliers d'individus, les oiseaux de rivage se nourrissant de biofilm pourraient avoir des impacts « majeurs » sur la dynamique sédimentaire[1]. Le dragage et le chalutage, l'apport de polluants piégés par le biofilm ou susceptible de l'altérer (pesticides, antifoolings, cuivre...)  peut interférer avec la productivité de cette ressource. Les auteurs de cette étude soulignent « l'importance des processus physiques et biologiques de maintien du biofilm pour la conservation de certains oiseaux de rivage et des écosystèmes interditaux »[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a montré par l'étude conjointe d'enregistrements vidéo et du contenu stomacal et d'isotopes stables comme marqueurs, que le Bécasseau d'Alaska se nourrit en grande partie d'algues et de bactéries qu'il trouve dans le biofilm intertidal.Auparavant, ce type de biofilm était uniquement considéré comme une source de nourriture pour les invertébrés râpeurs et quelques poissons spécialisés. Il constitue en fait de 45 à 59 % de la ration alimentaire totale de cette espèce. Et il fournit environ la moitié (50 %) de son budget énergétique quotidien.
+Il est possible que cette espèce puisse profiter d'une augmentation de l'épaisseur du biofilm due à l'eutrophisation générale de l'environnement. Ce constat implique aussi une concurrence entre cet oiseau et les invertébrés herbivores consommateurs primaires qui exploitent également cette ressource. Mais il est également possible qu'en remuant la couche superficielle du sédiment, l'oiseau favorise la régénération naturelle du biofilm qui à marée haute peut alors être consommé par les invertébrés aquatiques.
+En outre, comme les taux de consommation individuels sont estimés à sept fois la masse corporelle par jour, et que les de bécasseaux d'Alaska atteignent souvent des dizaines de milliers d'individus, les oiseaux de rivage se nourrissant de biofilm pourraient avoir des impacts « majeurs » sur la dynamique sédimentaire. Le dragage et le chalutage, l'apport de polluants piégés par le biofilm ou susceptible de l'altérer (pesticides, antifoolings, cuivre...)  peut interférer avec la productivité de cette ressource. Les auteurs de cette étude soulignent « l'importance des processus physiques et biologiques de maintien du biofilm pour la conservation de certains oiseaux de rivage et des écosystèmes interditaux ».
 </t>
         </is>
       </c>
